--- a/bots/crawl_ch/output/electronics_2022-08-23.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-23.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1664,48 +1664,50 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6761133</t>
+          <t>3494865</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
+          <t>Varta Electronics CR2430 1er Bli</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1715,7 +1717,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1730,55 +1732,53 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3494865</t>
+          <t>6761133</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1803,12 +1803,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2457,40 +2457,34 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3494130</t>
+          <t>4145012</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli</t>
+          <t>LED Teelichter warmweiss 4 Stück</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2498,39 +2492,23 @@
           <t>8.95</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
+          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2603,34 +2581,40 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4145012</t>
+          <t>3494130</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück</t>
+          <t>Varta Longlife Power AA 4er Bli</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-aa-4er-bli/p/3494130</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2638,23 +2622,39 @@
           <t>8.95</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2.24/1ST</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3068,50 +3068,50 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4358323</t>
+          <t>3494131</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
+          <t>Varta Longlife Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1.66/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3131,60 +3131,60 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3494131</t>
+          <t>4358323</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>6ST</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2.24/1ST</t>
+          <t>1.66/1ST</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3204,17 +3204,17 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3320,129 +3320,129 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6298048</t>
+          <t>4096751</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Electrolux</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2.16/1ST</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3494063</t>
+          <t>6298048</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli</t>
+          <t>Electrolux E201S Classic Staubbeutel</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Electrolux</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>3.98/1ST</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
+          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3548,95 +3548,75 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4096751</t>
+          <t>4942594</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
+          <t>Skross Adapter World-Schweiz</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>12.95</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2.16/1ST</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>19.95</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
+          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3494007</t>
+          <t>3494063</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli</t>
+          <t>Varta Longlife Power C 2er Bli</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3655,12 +3635,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>3.98/1ST</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3670,7 +3650,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3685,97 +3665,115 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6266870</t>
+          <t>3494007</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
+          <t>Varta Longlife Power D 2er Bli</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>reer</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
+          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6119284</t>
+          <t>6266870</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/reer-steckdosen-sicherung-kappe-schweiz-8-stueck/p/6266870</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="n">
-        <v>3</v>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>reer</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -3784,49 +3782,51 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
+          <t>Reer Steckdosen-Sicherung Kappe Schweiz 8 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4942594</t>
+          <t>6119284</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz</t>
+          <t>satrap Aqua SA10 Wasserkocher</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-sa10-wasserkocher/p/6119284</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3835,17 +3835,17 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
+          <t>satrap Aqua SA10 Wasserkocher 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -3967,172 +3967,172 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5872164</t>
+          <t>4905486</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2</t>
+          <t>Alkaline Batterie 3LR12/4.5V</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>5.95/1ST</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
+          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>5872164</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>Satrap Tischventilator Venti 2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-2/p/5872164</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>12.95</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2.16/1ST</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>34.95</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
+          <t>Satrap Tischventilator Venti 2 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4905486</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>5.95/1ST</t>
+          <t>2.16/1ST</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4142,7 +4142,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4157,12 +4157,12 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4388,100 +4388,80 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3494230</t>
+          <t>6831289</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli</t>
+          <t>Rowenta Staubsauger RO2933</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/rowenta-staubsauger-ro2933/p/6831289</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Rowenta</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
+          <t>Rowenta Staubsauger RO2933 40% Aktion 99.90 Schweizer Franken statt 169.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>3494230</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>Varta Electronics V13GS / V357 1er Bli</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -4495,12 +4475,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4510,7 +4490,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4520,17 +4500,17 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4603,204 +4583,224 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6831289</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Rowenta Staubsauger RO2933</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/rowenta-staubsauger-ro2933/p/6831289</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Rowenta</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>99.90</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>1.99/1ST</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Rowenta Staubsauger RO2933 40% Aktion 99.90 Schweizer Franken statt 169.00 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6753975</t>
+          <t>3591269</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563</t>
+          <t>Varta Longlife Max Power C 2er Bli</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>74.50</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4358322</t>
+          <t>6753975</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>1.66/1ST</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3591269</t>
+          <t>4358322</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-c-2er-bli/p/3591269</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>6ST</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -4811,17 +4811,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>1.66/1ST</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4846,12 +4846,12 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power C 2er Bli 8.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5163,7 +5163,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5267,7 +5267,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5318,7 +5318,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5628,7 +5628,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5699,7 +5699,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5770,7 +5770,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5912,7 +5912,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-23 07:06:52</t>
+          <t>2022-08-23 20:57:41</t>
         </is>
       </c>
     </row>
